--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -29,12 +29,22 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF0C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC1717"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +65,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,9 +476,9 @@
           <t>17161845</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -476,17 +488,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amirali Malekani Nezhad</t>
+          <t>Chan Joey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>S2009460</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Absent</t>
+          <t>17207412</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -496,15 +508,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chan Joey</t>
+          <t>Chong Jia Mun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17207412</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+          <t>17203339</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -516,15 +528,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chong Jia Mun</t>
+          <t>Danial Mecja</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17203339</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+          <t>17206744</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -536,15 +548,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Danial Mecja</t>
+          <t>Goh Yan Cheng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17206744</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+          <t>17203450</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -556,15 +568,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Goh Yan Cheng</t>
+          <t>Goh Yu Xuan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17203450</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+          <t>17206421</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -576,17 +588,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Goh Yu Xuan</t>
+          <t>Hariharan AL Puspadaran</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17206421</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Absent</t>
+          <t>17204208</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -596,17 +608,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hariharan AL Puspadaran</t>
+          <t>Jeevan Pillai AL Ramesh Pillai</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17204208</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Absent</t>
+          <t>17206340</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -616,17 +628,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jeevan Pillai AL Ramesh Pillai</t>
+          <t>Khairol Hazeeq Bin Khairol Nizat</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17206340</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Present</t>
+          <t>17072633</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -636,15 +648,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Khairol Hazeeq Bin Khairol Nizat</t>
+          <t>Kheeshyenraaj AL Murugan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17072633</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+          <t>17203295</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -664,9 +676,9 @@
           <t>17203142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -684,7 +696,7 @@
           <t>17204205</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -704,7 +716,7 @@
           <t>17207688</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -724,7 +736,7 @@
           <t>17204715</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -744,7 +756,7 @@
           <t>17203808</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -764,9 +776,9 @@
           <t>17136017</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -784,7 +796,7 @@
           <t>17205840</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -804,7 +816,7 @@
           <t>17112653</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -824,7 +836,7 @@
           <t>17085846</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -844,9 +856,9 @@
           <t>17167014</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -856,17 +868,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Noor Fakhira Izzah Izzati binti Ahmad Rodi</t>
+          <t>Nicole Grace Yeo Li Ying</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17114102</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Absent</t>
+          <t>17201831</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -876,15 +888,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nurul Hanina binti Haniff</t>
+          <t>Noor Fakhira Izzah Izzati binti Ahmad Rodi</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17138907</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+          <t>17114102</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -896,17 +908,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ooi Xin Peng</t>
+          <t>Nurul Hanina binti Haniff</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17204999</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Present</t>
+          <t>17138907</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -916,15 +928,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pahvindran Raj AL Shivaraja</t>
+          <t>Ooi Xin Peng</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17206883</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+          <t>17204999</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -936,15 +948,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tan Chee Lam</t>
+          <t>Pahvindran Raj AL Shivaraja</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17201781</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+          <t>17206883</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -956,15 +968,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tan Jun Wei</t>
+          <t>Tan Chee Lam</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17205304</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+          <t>17201781</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -976,15 +988,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tan Yi Zen</t>
+          <t>Tan Jun Wei</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17203164</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+          <t>17205304</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -996,15 +1008,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ting Wei Jing</t>
+          <t>Tan Yi Zen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17205876</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+          <t>17203164</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -1016,15 +1028,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Ting Wei Jing</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17205876</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Yee Li Yan</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>17206272</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>

--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -636,9 +636,9 @@
           <t>17072633</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -896,9 +896,9 @@
           <t>17114102</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -916,9 +916,9 @@
           <t>17138907</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -1056,9 +1056,9 @@
           <t>17206272</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
